--- a/_Format/issue_example.xlsx
+++ b/_Format/issue_example.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\ppe\trade\_Format\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\ppe\_Format\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -383,7 +383,7 @@
   <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G3" sqref="G3"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
@@ -394,12 +394,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="2" t="s">
         <v>2</v>
       </c>
+      <c r="C1" s="2"/>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
